--- a/dyes_DFT_LDA_eth_dataset.xlsx
+++ b/dyes_DFT_LDA_eth_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,15 +476,10 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>COSMO_Screening_Charge</t>
+          <t>Max_Absorption_nm</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Max_Absorption_nm</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Max_f_osc</t>
         </is>
@@ -518,12 +513,9 @@
         <v>646.0990399999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="J2" t="n">
-        <v>585</v>
-      </c>
-      <c r="K2" t="n">
         <v>0.9257919999999999</v>
       </c>
     </row>
@@ -555,12 +547,9 @@
         <v>832.68334</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="J3" t="n">
-        <v>576</v>
-      </c>
-      <c r="K3" t="n">
         <v>0.898504</v>
       </c>
     </row>
@@ -592,12 +581,9 @@
         <v>761.7046810000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="J4" t="n">
-        <v>938</v>
-      </c>
-      <c r="K4" t="n">
         <v>0.748518</v>
       </c>
     </row>
@@ -629,12 +615,9 @@
         <v>644.459413</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="J5" t="n">
-        <v>934</v>
-      </c>
-      <c r="K5" t="n">
         <v>0.68387</v>
       </c>
     </row>
@@ -666,12 +649,9 @@
         <v>635.3120269999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>918</v>
       </c>
       <c r="J6" t="n">
-        <v>918</v>
-      </c>
-      <c r="K6" t="n">
         <v>0.616428</v>
       </c>
     </row>
@@ -703,12 +683,9 @@
         <v>580.043959</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="J7" t="n">
-        <v>530</v>
-      </c>
-      <c r="K7" t="n">
         <v>0.912547</v>
       </c>
     </row>
@@ -740,12 +717,9 @@
         <v>659.6051</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="J8" t="n">
-        <v>990</v>
-      </c>
-      <c r="K8" t="n">
         <v>0.598239</v>
       </c>
     </row>
@@ -777,12 +751,9 @@
         <v>738.046701</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="J9" t="n">
-        <v>642</v>
-      </c>
-      <c r="K9" t="n">
         <v>0.6543369999999999</v>
       </c>
     </row>
@@ -814,12 +785,9 @@
         <v>819.062786</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="J10" t="n">
-        <v>683</v>
-      </c>
-      <c r="K10" t="n">
         <v>1.467794</v>
       </c>
     </row>
@@ -851,12 +819,9 @@
         <v>405.588145</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>415</v>
       </c>
       <c r="J11" t="n">
-        <v>415</v>
-      </c>
-      <c r="K11" t="n">
         <v>0.140013</v>
       </c>
     </row>
@@ -888,12 +853,9 @@
         <v>377.858553</v>
       </c>
       <c r="I12" t="n">
-        <v>-0</v>
+        <v>411</v>
       </c>
       <c r="J12" t="n">
-        <v>411</v>
-      </c>
-      <c r="K12" t="n">
         <v>0.262642</v>
       </c>
     </row>
@@ -925,12 +887,9 @@
         <v>395.333947</v>
       </c>
       <c r="I13" t="n">
-        <v>-0</v>
+        <v>358</v>
       </c>
       <c r="J13" t="n">
-        <v>358</v>
-      </c>
-      <c r="K13" t="n">
         <v>0.109675</v>
       </c>
     </row>
@@ -962,12 +921,9 @@
         <v>422.071911</v>
       </c>
       <c r="I14" t="n">
-        <v>-0</v>
+        <v>474</v>
       </c>
       <c r="J14" t="n">
-        <v>474</v>
-      </c>
-      <c r="K14" t="n">
         <v>0.498719</v>
       </c>
     </row>
@@ -999,12 +955,9 @@
         <v>447.552538</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>519</v>
       </c>
       <c r="J15" t="n">
-        <v>519</v>
-      </c>
-      <c r="K15" t="n">
         <v>0.533673</v>
       </c>
     </row>
@@ -1036,12 +989,9 @@
         <v>345.067817</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="J16" t="n">
-        <v>342</v>
-      </c>
-      <c r="K16" t="n">
         <v>0.321588</v>
       </c>
     </row>
@@ -1073,12 +1023,9 @@
         <v>324.319271</v>
       </c>
       <c r="I17" t="n">
-        <v>-0</v>
+        <v>304</v>
       </c>
       <c r="J17" t="n">
-        <v>304</v>
-      </c>
-      <c r="K17" t="n">
         <v>0.321389</v>
       </c>
     </row>
@@ -1110,12 +1057,9 @@
         <v>322.019949</v>
       </c>
       <c r="I18" t="n">
-        <v>-0</v>
+        <v>328</v>
       </c>
       <c r="J18" t="n">
-        <v>328</v>
-      </c>
-      <c r="K18" t="n">
         <v>0.453893</v>
       </c>
     </row>
@@ -1147,12 +1091,9 @@
         <v>353.717532</v>
       </c>
       <c r="I19" t="n">
-        <v>-0</v>
+        <v>517</v>
       </c>
       <c r="J19" t="n">
-        <v>517</v>
-      </c>
-      <c r="K19" t="n">
         <v>0.55103</v>
       </c>
     </row>
@@ -1184,12 +1125,9 @@
         <v>417.187669</v>
       </c>
       <c r="I20" t="n">
-        <v>-0</v>
+        <v>273</v>
       </c>
       <c r="J20" t="n">
-        <v>273</v>
-      </c>
-      <c r="K20" t="n">
         <v>0.145043</v>
       </c>
     </row>
@@ -1221,12 +1159,9 @@
         <v>712.4113</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="J21" t="n">
-        <v>473</v>
-      </c>
-      <c r="K21" t="n">
         <v>0.379511</v>
       </c>
     </row>
@@ -1258,12 +1193,9 @@
         <v>383.364363</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="J22" t="n">
-        <v>516</v>
-      </c>
-      <c r="K22" t="n">
         <v>0.948782</v>
       </c>
     </row>
@@ -1295,12 +1227,9 @@
         <v>432.277982</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="J23" t="n">
-        <v>474</v>
-      </c>
-      <c r="K23" t="n">
         <v>0.708416</v>
       </c>
     </row>
@@ -1332,12 +1261,9 @@
         <v>410.949228</v>
       </c>
       <c r="I24" t="n">
-        <v>-0</v>
+        <v>552</v>
       </c>
       <c r="J24" t="n">
-        <v>552</v>
-      </c>
-      <c r="K24" t="n">
         <v>1.03911</v>
       </c>
     </row>
@@ -1369,12 +1295,9 @@
         <v>456.523894</v>
       </c>
       <c r="I25" t="n">
-        <v>-0</v>
+        <v>584</v>
       </c>
       <c r="J25" t="n">
-        <v>584</v>
-      </c>
-      <c r="K25" t="n">
         <v>0.695781</v>
       </c>
     </row>

--- a/dyes_DFT_LDA_eth_dataset.xlsx
+++ b/dyes_DFT_LDA_eth_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,32 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total_Energy_Hartree</t>
+          <t>Max_Absorption_nm</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Solvation_Energy_eV</t>
+          <t>Max_f_osc</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Surface_Area_A2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Molecular_Volume_A3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Max_Absorption_nm</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Max_f_osc</t>
+          <t>Max_Excitation_eV</t>
         </is>
       </c>
     </row>
@@ -501,22 +486,13 @@
         <v>25.8598</v>
       </c>
       <c r="E2" t="n">
-        <v>-2845.959095</v>
+        <v>585</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.266</v>
+        <v>0.9257919999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>591.437175</v>
-      </c>
-      <c r="H2" t="n">
-        <v>646.0990399999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9257919999999999</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="3">
@@ -535,22 +511,13 @@
         <v>19.121</v>
       </c>
       <c r="E3" t="n">
-        <v>-2662.259494</v>
+        <v>576</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.188</v>
+        <v>0.898504</v>
       </c>
       <c r="G3" t="n">
-        <v>750.623282</v>
-      </c>
-      <c r="H3" t="n">
-        <v>832.68334</v>
-      </c>
-      <c r="I3" t="n">
-        <v>576</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.898504</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="4">
@@ -569,22 +536,13 @@
         <v>19.5977</v>
       </c>
       <c r="E4" t="n">
-        <v>-2508.691351</v>
+        <v>938</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.094</v>
+        <v>0.748518</v>
       </c>
       <c r="G4" t="n">
-        <v>689.779658</v>
-      </c>
-      <c r="H4" t="n">
-        <v>761.7046810000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>938</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.748518</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="5">
@@ -603,22 +561,13 @@
         <v>26.4048</v>
       </c>
       <c r="E5" t="n">
-        <v>-2845.959515</v>
+        <v>934</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.245</v>
+        <v>0.68387</v>
       </c>
       <c r="G5" t="n">
-        <v>588.463554</v>
-      </c>
-      <c r="H5" t="n">
-        <v>644.459413</v>
-      </c>
-      <c r="I5" t="n">
-        <v>934</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.68387</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +586,13 @@
         <v>19.038</v>
       </c>
       <c r="E6" t="n">
-        <v>-3488.089951</v>
+        <v>918</v>
       </c>
       <c r="F6" t="n">
-        <v>-1</v>
+        <v>0.616428</v>
       </c>
       <c r="G6" t="n">
-        <v>579.04015</v>
-      </c>
-      <c r="H6" t="n">
-        <v>635.3120269999999</v>
-      </c>
-      <c r="I6" t="n">
-        <v>918</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.616428</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="7">
@@ -671,22 +611,13 @@
         <v>15.8477</v>
       </c>
       <c r="E7" t="n">
-        <v>-1974.65096</v>
+        <v>530</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.088</v>
+        <v>0.912547</v>
       </c>
       <c r="G7" t="n">
-        <v>540.158735</v>
-      </c>
-      <c r="H7" t="n">
-        <v>580.043959</v>
-      </c>
-      <c r="I7" t="n">
-        <v>530</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.912547</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="8">
@@ -705,22 +636,13 @@
         <v>24.9815</v>
       </c>
       <c r="E8" t="n">
-        <v>-2203.84066</v>
+        <v>990</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.255</v>
+        <v>0.598239</v>
       </c>
       <c r="G8" t="n">
-        <v>603.405871</v>
-      </c>
-      <c r="H8" t="n">
-        <v>659.6051</v>
-      </c>
-      <c r="I8" t="n">
-        <v>990</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.598239</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +661,13 @@
         <v>19.9402</v>
       </c>
       <c r="E9" t="n">
-        <v>-2754.104022</v>
+        <v>642</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.352</v>
+        <v>0.6543369999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>666.919046</v>
-      </c>
-      <c r="H9" t="n">
-        <v>738.046701</v>
-      </c>
-      <c r="I9" t="n">
-        <v>642</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6543369999999999</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="10">
@@ -773,22 +686,13 @@
         <v>17.0612</v>
       </c>
       <c r="E10" t="n">
-        <v>-3304.386253</v>
+        <v>683</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.213</v>
+        <v>1.467794</v>
       </c>
       <c r="G10" t="n">
-        <v>738.875559</v>
-      </c>
-      <c r="H10" t="n">
-        <v>819.062786</v>
-      </c>
-      <c r="I10" t="n">
-        <v>683</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.467794</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="11">
@@ -807,22 +711,13 @@
         <v>7.0315</v>
       </c>
       <c r="E11" t="n">
-        <v>-1384.993116</v>
+        <v>415</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.232</v>
+        <v>0.140013</v>
       </c>
       <c r="G11" t="n">
-        <v>378.606349</v>
-      </c>
-      <c r="H11" t="n">
-        <v>405.588145</v>
-      </c>
-      <c r="I11" t="n">
-        <v>415</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.140013</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="12">
@@ -841,22 +736,13 @@
         <v>7.3196</v>
       </c>
       <c r="E12" t="n">
-        <v>-1271.120345</v>
+        <v>411</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.114</v>
+        <v>0.262642</v>
       </c>
       <c r="G12" t="n">
-        <v>351.163077</v>
-      </c>
-      <c r="H12" t="n">
-        <v>377.858553</v>
-      </c>
-      <c r="I12" t="n">
-        <v>411</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.262642</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="13">
@@ -875,22 +761,13 @@
         <v>2.8017</v>
       </c>
       <c r="E13" t="n">
-        <v>-1436.473876</v>
+        <v>358</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.105</v>
+        <v>0.109675</v>
       </c>
       <c r="G13" t="n">
-        <v>338.271434</v>
-      </c>
-      <c r="H13" t="n">
-        <v>395.333947</v>
-      </c>
-      <c r="I13" t="n">
-        <v>358</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.109675</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="14">
@@ -909,22 +786,13 @@
         <v>5.9829</v>
       </c>
       <c r="E14" t="n">
-        <v>-3688.284075</v>
+        <v>474</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.73</v>
+        <v>0.498719</v>
       </c>
       <c r="G14" t="n">
-        <v>385.671504</v>
-      </c>
-      <c r="H14" t="n">
-        <v>422.071911</v>
-      </c>
-      <c r="I14" t="n">
-        <v>474</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.498719</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="15">
@@ -943,22 +811,13 @@
         <v>7.7744</v>
       </c>
       <c r="E15" t="n">
-        <v>-3779.886307</v>
+        <v>519</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.854</v>
+        <v>0.533673</v>
       </c>
       <c r="G15" t="n">
-        <v>406.753087</v>
-      </c>
-      <c r="H15" t="n">
-        <v>447.552538</v>
-      </c>
-      <c r="I15" t="n">
-        <v>519</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.533673</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="16">
@@ -977,22 +836,13 @@
         <v>8.9611</v>
       </c>
       <c r="E16" t="n">
-        <v>-1345.221234</v>
+        <v>342</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8</v>
+        <v>0.321588</v>
       </c>
       <c r="G16" t="n">
-        <v>325.924201</v>
-      </c>
-      <c r="H16" t="n">
-        <v>345.067817</v>
-      </c>
-      <c r="I16" t="n">
-        <v>342</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.321588</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="17">
@@ -1011,22 +861,13 @@
         <v>7.2708</v>
       </c>
       <c r="E17" t="n">
-        <v>-1253.62136</v>
+        <v>304</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.67</v>
+        <v>0.321389</v>
       </c>
       <c r="G17" t="n">
-        <v>308.09092</v>
-      </c>
-      <c r="H17" t="n">
-        <v>324.319271</v>
-      </c>
-      <c r="I17" t="n">
-        <v>304</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.321389</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="18">
@@ -1045,22 +886,13 @@
         <v>9.492599999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>-947.3846590000001</v>
+        <v>328</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.792</v>
+        <v>0.453893</v>
       </c>
       <c r="G18" t="n">
-        <v>306.539134</v>
-      </c>
-      <c r="H18" t="n">
-        <v>322.019949</v>
-      </c>
-      <c r="I18" t="n">
-        <v>328</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.453893</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="19">
@@ -1079,22 +911,13 @@
         <v>9.280799999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>-1025.326858</v>
+        <v>517</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.796</v>
+        <v>0.55103</v>
       </c>
       <c r="G19" t="n">
-        <v>329.421503</v>
-      </c>
-      <c r="H19" t="n">
-        <v>353.717532</v>
-      </c>
-      <c r="I19" t="n">
-        <v>517</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.55103</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20">
@@ -1113,22 +936,13 @@
         <v>4.3145</v>
       </c>
       <c r="E20" t="n">
-        <v>-1629.616828</v>
+        <v>273</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.01</v>
+        <v>0.145043</v>
       </c>
       <c r="G20" t="n">
-        <v>362.791636</v>
-      </c>
-      <c r="H20" t="n">
-        <v>417.187669</v>
-      </c>
-      <c r="I20" t="n">
-        <v>273</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.145043</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="21">
@@ -1147,22 +961,13 @@
         <v>8.2121</v>
       </c>
       <c r="E21" t="n">
-        <v>-2695.343406</v>
+        <v>473</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.891</v>
+        <v>0.379511</v>
       </c>
       <c r="G21" t="n">
-        <v>610.412322</v>
-      </c>
-      <c r="H21" t="n">
-        <v>712.4113</v>
-      </c>
-      <c r="I21" t="n">
-        <v>473</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.379511</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="22">
@@ -1181,22 +986,13 @@
         <v>14.5133</v>
       </c>
       <c r="E22" t="n">
-        <v>-1457.859494</v>
+        <v>516</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.036</v>
+        <v>0.948782</v>
       </c>
       <c r="G22" t="n">
-        <v>370.948838</v>
-      </c>
-      <c r="H22" t="n">
-        <v>383.364363</v>
-      </c>
-      <c r="I22" t="n">
-        <v>516</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.948782</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23">
@@ -1215,22 +1011,13 @@
         <v>15.9915</v>
       </c>
       <c r="E23" t="n">
-        <v>-1610.708993</v>
+        <v>474</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.124</v>
+        <v>0.708416</v>
       </c>
       <c r="G23" t="n">
-        <v>415.36278</v>
-      </c>
-      <c r="H23" t="n">
-        <v>432.277982</v>
-      </c>
-      <c r="I23" t="n">
-        <v>474</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.708416</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="24">
@@ -1249,22 +1036,13 @@
         <v>12.7977</v>
       </c>
       <c r="E24" t="n">
-        <v>-1625.642048</v>
+        <v>552</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.975</v>
+        <v>1.03911</v>
       </c>
       <c r="G24" t="n">
-        <v>391.930428</v>
-      </c>
-      <c r="H24" t="n">
-        <v>410.949228</v>
-      </c>
-      <c r="I24" t="n">
-        <v>552</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.03911</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="25">
@@ -1283,22 +1061,13 @@
         <v>13.6504</v>
       </c>
       <c r="E25" t="n">
-        <v>-1778.493159</v>
+        <v>584</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.035</v>
+        <v>0.695781</v>
       </c>
       <c r="G25" t="n">
-        <v>438.456765</v>
-      </c>
-      <c r="H25" t="n">
-        <v>456.523894</v>
-      </c>
-      <c r="I25" t="n">
-        <v>584</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.695781</v>
+        <v>2.12</v>
       </c>
     </row>
   </sheetData>
